--- a/src/test/resources/configue/client data.xlsx
+++ b/src/test/resources/configue/client data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEFD1A2-4C6E-4364-A0F7-832A8F733E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFF8DD6-9A65-4EB4-B3FF-1A4B2E8D35F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B2E4AEA9-50A0-45A2-BEDB-D5C3F12F5FC3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -57,9 +57,6 @@
     <t>utrnum</t>
   </si>
   <si>
-    <t>anwar118</t>
-  </si>
-  <si>
     <t>capium,hitech pearl</t>
   </si>
   <si>
@@ -76,16 +73,172 @@
   </si>
   <si>
     <t>instagram</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>user7</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>user9</t>
+  </si>
+  <si>
+    <t>user10</t>
+  </si>
+  <si>
+    <t>user11</t>
+  </si>
+  <si>
+    <t>user12</t>
+  </si>
+  <si>
+    <t>user13</t>
+  </si>
+  <si>
+    <t>user14</t>
+  </si>
+  <si>
+    <t>user15</t>
+  </si>
+  <si>
+    <t>user16</t>
+  </si>
+  <si>
+    <t>user17</t>
+  </si>
+  <si>
+    <t>user18</t>
+  </si>
+  <si>
+    <t>user19</t>
+  </si>
+  <si>
+    <t>user20</t>
+  </si>
+  <si>
+    <t>user21</t>
+  </si>
+  <si>
+    <t>user22</t>
+  </si>
+  <si>
+    <t>user23</t>
+  </si>
+  <si>
+    <t>user24</t>
+  </si>
+  <si>
+    <t>user25</t>
+  </si>
+  <si>
+    <t>user26</t>
+  </si>
+  <si>
+    <t>user27</t>
+  </si>
+  <si>
+    <t>user28</t>
+  </si>
+  <si>
+    <t>user29</t>
+  </si>
+  <si>
+    <t>user30</t>
+  </si>
+  <si>
+    <t>user31</t>
+  </si>
+  <si>
+    <t>user32</t>
+  </si>
+  <si>
+    <t>user33</t>
+  </si>
+  <si>
+    <t>user34</t>
+  </si>
+  <si>
+    <t>user35</t>
+  </si>
+  <si>
+    <t>user36</t>
+  </si>
+  <si>
+    <t>user37</t>
+  </si>
+  <si>
+    <t>user38</t>
+  </si>
+  <si>
+    <t>user39</t>
+  </si>
+  <si>
+    <t>user40</t>
+  </si>
+  <si>
+    <t>user41</t>
+  </si>
+  <si>
+    <t>user42</t>
+  </si>
+  <si>
+    <t>user43</t>
+  </si>
+  <si>
+    <t>user44</t>
+  </si>
+  <si>
+    <t>user45</t>
+  </si>
+  <si>
+    <t>user46</t>
+  </si>
+  <si>
+    <t>user47</t>
+  </si>
+  <si>
+    <t>user48</t>
+  </si>
+  <si>
+    <t>user49</t>
+  </si>
+  <si>
+    <t>user50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,9 +264,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34498A69-1CC6-4E1D-A854-209B74CD49F0}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -481,37 +633,1606 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>500018</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
       </c>
       <c r="H2">
         <v>2233445566</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>1234567890</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>500019</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>2233445567</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>1234567891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>500020</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>2233445568</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>1234567892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>500021</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>2233445569</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>1234567893</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>500022</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>2233445570</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>1234567894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>500023</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>2233445571</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>1234567895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>500024</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>2233445572</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>1234567896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>500025</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>2233445573</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>1234567897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>500026</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>2233445574</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>1234567898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>500027</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>2233445575</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>1234567899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>500028</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>2233445576</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>1234567900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>500029</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>2233445577</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>1234567901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>500030</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>2233445578</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>1234567902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>500031</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>2233445579</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>1234567903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>500032</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>2233445580</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>1234567904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>500033</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>2233445581</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>1234567905</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>500034</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>2233445582</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>1234567906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>500035</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19">
+        <v>2233445583</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>1234567907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>500036</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>2233445584</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20">
+        <v>1234567908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>500037</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>2233445585</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>1234567909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>500038</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>2233445586</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <v>1234567910</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>500039</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23">
+        <v>2233445587</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23">
+        <v>1234567911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>500040</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <v>2233445588</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24">
+        <v>1234567912</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>500041</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>2233445589</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <v>1234567913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>500042</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <v>2233445590</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26">
+        <v>1234567914</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>500043</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>2233445591</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27">
+        <v>1234567915</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>500044</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28">
+        <v>2233445592</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28">
+        <v>1234567916</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>500045</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29">
+        <v>2233445593</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29">
+        <v>1234567917</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>500046</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30">
+        <v>2233445594</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30">
+        <v>1234567918</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>500047</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31">
+        <v>2233445595</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31">
+        <v>1234567919</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>500048</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32">
+        <v>2233445596</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32">
+        <v>1234567920</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>500049</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <v>2233445597</v>
+      </c>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33">
+        <v>1234567921</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>500050</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>2233445598</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34">
+        <v>1234567922</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>500051</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35">
+        <v>2233445599</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35">
+        <v>1234567923</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>500052</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36">
+        <v>2233445600</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36">
+        <v>1234567924</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>500053</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37">
+        <v>2233445601</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37">
+        <v>1234567925</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>500054</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>2233445602</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38">
+        <v>1234567926</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>500055</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39">
+        <v>2233445603</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39">
+        <v>1234567927</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>500056</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40">
+        <v>2233445604</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40">
+        <v>1234567928</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>500057</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41">
+        <v>2233445605</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41">
+        <v>1234567929</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>500058</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42">
+        <v>2233445606</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42">
+        <v>1234567930</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>500059</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43">
+        <v>2233445607</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43">
+        <v>1234567931</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>500060</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44">
+        <v>2233445608</v>
+      </c>
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44">
+        <v>1234567932</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>500061</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45">
+        <v>2233445609</v>
+      </c>
+      <c r="I45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45">
+        <v>1234567933</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>500062</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46">
+        <v>2233445610</v>
+      </c>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46">
+        <v>1234567934</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>500063</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47">
+        <v>2233445611</v>
+      </c>
+      <c r="I47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47">
+        <v>1234567935</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48">
+        <v>500064</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48">
+        <v>2233445612</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48">
+        <v>1234567936</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>500065</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49">
+        <v>2233445613</v>
+      </c>
+      <c r="I49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49">
+        <v>1234567937</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>500066</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50">
+        <v>2233445614</v>
+      </c>
+      <c r="I50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50">
+        <v>1234567938</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>500067</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51">
+        <v>2233445615</v>
+      </c>
+      <c r="I51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51">
+        <v>1234567939</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>